--- a/ldas/data/items/properties.xlsx
+++ b/ldas/data/items/properties.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'Description': 4}</t>
+          <t>{'Description': 6}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{True: 4}</t>
+          <t>{True: 6}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'literal': 4}</t>
+          <t>{'literal': 6}</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'Identifier': 201}</t>
+          <t>{'Identifier': 203}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{True: 201}</t>
+          <t>{True: 203}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'literal': 201}</t>
+          <t>{'literal': 203}</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dcterms:source</t>
+          <t>dcterms:rights</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'Source': 2}</t>
+          <t>{'Rights': 2}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,51 +549,73 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'literal': 2}</t>
+          <t>{'uri': 2}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dcterms:subject</t>
+          <t>dcterms:source</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'Subject': 99}</t>
+          <t>{'Source': 2}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{True: 99}</t>
+          <t>{True: 2}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'literal': 99}</t>
+          <t>{'literal': 2}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>dcterms:subject</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'Subject': 107}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{True: 107}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'literal': 107}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>dcterms:title</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{'Title': 203}</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>{True: 203}</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>{'literal': 203}</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'Title': 205}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{True: 205}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'literal': 205}</t>
         </is>
       </c>
     </row>
